--- a/erp_backend/user_uped.xlsx
+++ b/erp_backend/user_uped.xlsx
@@ -3,6 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+  </bookViews>
   <sheets>
     <sheet sheetId="1" name="UserSheet" state="visible" r:id="rId4"/>
   </sheets>
@@ -11,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -20,6 +23,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
   <si>
     <t>1</t>
@@ -764,11 +770,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -793,8 +805,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -946,7 +964,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -957,27 +974,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -999,7 +1020,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1057,7 +1078,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -1070,13 +1091,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -1088,56 +1108,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,1362 +1140,1741 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="8" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="60" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="61" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="62" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="63" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="65" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="66" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="67" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="68" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="69" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="70" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="71" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="72" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>105</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>125</v>
-      </c>
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="C62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" t="s">
-        <v>64</v>
-      </c>
       <c r="C73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="74" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="76" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="77" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="78" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="79" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="80" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>152</v>
-      </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>156</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
       <c r="C80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D80" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="81" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D81" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="82" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="83" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D83" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="84" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D84" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="85" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="86" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="87" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="88" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="89" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="90" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D90" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="91" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="92" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D92" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="93" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D93" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="94" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D94" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="95" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D95" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="96" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="97" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D97" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="99" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="100" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="101" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="102" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="103" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="104" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="105" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="106" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="108" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D108" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="109" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="110" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D110" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="111" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D111" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="112" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="113" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="114" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D114" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="115" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D115" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="116" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D116" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="117" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="118" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D118" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="119" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D119" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="120" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D120" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="121" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="122" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D122" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="123" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D123" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="124" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D124" s="2">
+        <v>7892726198</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="2">
+        <v>7892726198</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/erp_backend/user_uped.xlsx
+++ b/erp_backend/user_uped.xlsx
@@ -2076,7 +2076,7 @@
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
         <v>7892726198</v>
@@ -2188,7 +2188,7 @@
         <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D76" s="2">
         <v>7892726198</v>
@@ -2440,7 +2440,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D94" s="2">
         <v>7892726198</v>
@@ -2454,7 +2454,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2">
         <v>7892726198</v>

--- a/erp_backend/user_uped.xlsx
+++ b/erp_backend/user_uped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="484" yWindow="65" windowWidth="18196" windowHeight="8509"/>
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="UserSheet" state="visible" r:id="rId4"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -770,7 +770,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -780,6 +780,12 @@
     </font>
     <font>
       <color theme="1"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <family val="2"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -805,12 +811,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1118,19 +1127,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.05" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1140,11 +1149,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1154,11 +1163,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1168,11 +1177,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1182,11 +1191,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1196,11 +1205,11 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1210,11 +1219,11 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1224,11 +1233,11 @@
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="8" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1238,11 +1247,11 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1252,11 +1261,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1266,11 +1275,11 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1280,11 +1289,11 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1294,11 +1303,11 @@
       <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1308,11 +1317,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1322,11 +1331,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="15" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1336,11 +1345,11 @@
       <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1350,11 +1359,11 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1364,11 +1373,11 @@
       <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1378,11 +1387,11 @@
       <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="19" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1392,11 +1401,11 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1406,11 +1415,11 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="21" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1420,11 +1429,11 @@
       <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="22" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1434,11 +1443,11 @@
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="23" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1448,11 +1457,11 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1462,11 +1471,11 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="25" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1476,11 +1485,11 @@
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1490,11 +1499,11 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="27" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1504,11 +1513,11 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="28" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1518,11 +1527,11 @@
       <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="29" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1532,11 +1541,11 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="30" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1546,11 +1555,11 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="31" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1560,11 +1569,11 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="32" ht="19.5" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1574,11 +1583,11 @@
       <c r="C32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="33" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1588,11 +1597,11 @@
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="34" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1602,11 +1611,11 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="35" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -1616,11 +1625,11 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="36" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>74</v>
       </c>
@@ -1630,11 +1639,11 @@
       <c r="C36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="37" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -1644,11 +1653,11 @@
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="38" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1658,11 +1667,11 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="39" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1672,11 +1681,11 @@
       <c r="C39" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="40" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -1686,11 +1695,11 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="41" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1700,11 +1709,11 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="42" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -1714,11 +1723,11 @@
       <c r="C42" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="43" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="43" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -1728,11 +1737,11 @@
       <c r="C43" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="44" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -1742,11 +1751,11 @@
       <c r="C44" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="45" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="45" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -1756,11 +1765,11 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="46" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="46" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -1770,11 +1779,11 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="47" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="47" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>96</v>
       </c>
@@ -1784,11 +1793,11 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="48" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="48" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
@@ -1798,11 +1807,11 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="49" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="49" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -1812,11 +1821,11 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="50" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="50" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>102</v>
       </c>
@@ -1826,11 +1835,11 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="51" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>104</v>
       </c>
@@ -1840,11 +1849,11 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="52" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="52" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>106</v>
       </c>
@@ -1854,11 +1863,11 @@
       <c r="C52" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="53" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="53" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -1868,11 +1877,11 @@
       <c r="C53" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="54" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>110</v>
       </c>
@@ -1882,11 +1891,11 @@
       <c r="C54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="55" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>112</v>
       </c>
@@ -1896,11 +1905,11 @@
       <c r="C55" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="56" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="56" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -1910,11 +1919,11 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="57" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -1924,11 +1933,11 @@
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="58" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="58" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>118</v>
       </c>
@@ -1938,11 +1947,11 @@
       <c r="C58" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="59" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="59" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -1952,11 +1961,11 @@
       <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="60" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="60" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>122</v>
       </c>
@@ -1966,11 +1975,11 @@
       <c r="C60" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="61" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="61" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>124</v>
       </c>
@@ -1980,11 +1989,11 @@
       <c r="C61" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="62" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="62" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>126</v>
       </c>
@@ -1994,11 +2003,11 @@
       <c r="C62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="63" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="63" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>128</v>
       </c>
@@ -2008,11 +2017,11 @@
       <c r="C63" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="64" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="64" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>130</v>
       </c>
@@ -2022,11 +2031,11 @@
       <c r="C64" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="65" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="65" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -2036,11 +2045,11 @@
       <c r="C65" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="66" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="66" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>134</v>
       </c>
@@ -2050,11 +2059,11 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="67" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="67" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>136</v>
       </c>
@@ -2064,11 +2073,11 @@
       <c r="C67" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="68" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="68" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>138</v>
       </c>
@@ -2078,11 +2087,11 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="69" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="69" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>140</v>
       </c>
@@ -2092,11 +2101,11 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="70" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="70" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>142</v>
       </c>
@@ -2106,11 +2115,11 @@
       <c r="C70" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="71" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="71" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -2120,11 +2129,11 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="72" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="72" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -2134,11 +2143,11 @@
       <c r="C72" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="73" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="73" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>148</v>
       </c>
@@ -2148,11 +2157,11 @@
       <c r="C73" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="74" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="74" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>149</v>
       </c>
@@ -2162,11 +2171,11 @@
       <c r="C74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="75" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="75" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>151</v>
       </c>
@@ -2176,11 +2185,11 @@
       <c r="C75" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="76" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="76" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>153</v>
       </c>
@@ -2190,11 +2199,11 @@
       <c r="C76" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="77" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="77" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -2204,11 +2213,11 @@
       <c r="C77" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="78" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="78" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -2218,11 +2227,11 @@
       <c r="C78" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="79" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="79" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -2232,11 +2241,11 @@
       <c r="C79" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="80" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="80" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>161</v>
       </c>
@@ -2246,11 +2255,11 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="81" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="81" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>162</v>
       </c>
@@ -2260,11 +2269,11 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="82" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="82" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -2274,11 +2283,11 @@
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="83" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="83" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -2288,11 +2297,11 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="84" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="84" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>168</v>
       </c>
@@ -2302,11 +2311,11 @@
       <c r="C84" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="85" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="85" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -2316,11 +2325,11 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="86" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="86" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -2330,11 +2339,11 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="87" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="87" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -2344,11 +2353,11 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="88" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="88" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -2358,11 +2367,11 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="89" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="89" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -2372,11 +2381,11 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="90" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="90" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -2386,11 +2395,11 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="91" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="91" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>182</v>
       </c>
@@ -2400,11 +2409,11 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="92" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="92" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>184</v>
       </c>
@@ -2414,11 +2423,11 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="93" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="93" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
@@ -2428,11 +2437,11 @@
       <c r="C93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="94" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="94" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>188</v>
       </c>
@@ -2442,11 +2451,11 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="95" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="95" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>190</v>
       </c>
@@ -2456,11 +2465,11 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="96" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="96" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -2470,11 +2479,11 @@
       <c r="C96" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="97" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="97" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -2484,11 +2493,11 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="98" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="98" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>196</v>
       </c>
@@ -2498,11 +2507,11 @@
       <c r="C98" t="s">
         <v>15</v>
       </c>
-      <c r="D98" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="99" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="99" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>198</v>
       </c>
@@ -2512,11 +2521,11 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="100" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="100" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>200</v>
       </c>
@@ -2526,11 +2535,11 @@
       <c r="C100" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="101" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="101" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>202</v>
       </c>
@@ -2540,11 +2549,11 @@
       <c r="C101" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="102" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="102" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>204</v>
       </c>
@@ -2554,11 +2563,11 @@
       <c r="C102" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="103" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="103" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -2568,11 +2577,11 @@
       <c r="C103" t="s">
         <v>15</v>
       </c>
-      <c r="D103" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="104" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="104" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>208</v>
       </c>
@@ -2582,11 +2591,11 @@
       <c r="C104" t="s">
         <v>15</v>
       </c>
-      <c r="D104" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="105" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="105" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>210</v>
       </c>
@@ -2596,11 +2605,11 @@
       <c r="C105" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="106" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="106" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>212</v>
       </c>
@@ -2610,11 +2619,11 @@
       <c r="C106" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="107" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="107" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>214</v>
       </c>
@@ -2624,11 +2633,11 @@
       <c r="C107" t="s">
         <v>15</v>
       </c>
-      <c r="D107" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="108" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="108" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>216</v>
       </c>
@@ -2638,11 +2647,11 @@
       <c r="C108" t="s">
         <v>15</v>
       </c>
-      <c r="D108" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="109" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="109" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>218</v>
       </c>
@@ -2652,11 +2661,11 @@
       <c r="C109" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="110" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="110" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -2666,11 +2675,11 @@
       <c r="C110" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="111" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="111" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -2680,11 +2689,11 @@
       <c r="C111" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="112" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="112" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -2694,11 +2703,11 @@
       <c r="C112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="113" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="113" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>226</v>
       </c>
@@ -2708,11 +2717,11 @@
       <c r="C113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="114" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="114" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>228</v>
       </c>
@@ -2722,11 +2731,11 @@
       <c r="C114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="115" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="115" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>230</v>
       </c>
@@ -2736,11 +2745,11 @@
       <c r="C115" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="116" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="116" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>232</v>
       </c>
@@ -2750,11 +2759,11 @@
       <c r="C116" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="117" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="117" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>234</v>
       </c>
@@ -2764,11 +2773,11 @@
       <c r="C117" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="118" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="118" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>236</v>
       </c>
@@ -2778,11 +2787,11 @@
       <c r="C118" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="119" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="119" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -2792,11 +2801,11 @@
       <c r="C119" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="120" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="120" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>240</v>
       </c>
@@ -2806,11 +2815,11 @@
       <c r="C120" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="121" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="121" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>242</v>
       </c>
@@ -2820,11 +2829,11 @@
       <c r="C121" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="122" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="122" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>244</v>
       </c>
@@ -2834,11 +2843,11 @@
       <c r="C122" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="123" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="123" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>246</v>
       </c>
@@ -2848,11 +2857,11 @@
       <c r="C123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="124" ht="18.75" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="124" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>248</v>
       </c>
@@ -2862,17 +2871,33 @@
       <c r="C124" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="2">
-        <v>7892726198</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="3">
+        <v>9390206918</v>
+      </c>
+    </row>
+    <row r="125" ht="18.85" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="2">
-        <v>7892726198</v>
-      </c>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
